--- a/第4章excel/公式和函数/函数练习.xlsx
+++ b/第4章excel/公式和函数/函数练习.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="练习1" sheetId="1" r:id="rId1"/>
+    <sheet name="练习2" sheetId="2" r:id="rId2"/>
+    <sheet name="练习3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="81">
   <si>
     <t>编号</t>
   </si>
@@ -241,38 +241,59 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>分数段人数</t>
+    <t>&gt;=90</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;=60</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>总分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求：计算总分，总分不包括革命史，与普通物理的成绩，并使用:与,引用单元格</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分数1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分数2</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>0-59.9</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>60-69.9</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>70-79.9</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>80-89.9</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>90-100</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>分数3</t>
+  </si>
+  <si>
+    <t>分数4</t>
+  </si>
+  <si>
+    <t>分数5</t>
+  </si>
+  <si>
+    <t>分数6</t>
+  </si>
+  <si>
+    <t>综合得分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合得分为去掉一个最高分，再去掉一个最低分，剩下的4个成绩求平均分，结果保留2为小数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -326,6 +347,29 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -353,7 +397,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -398,34 +442,8 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -435,7 +453,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -467,17 +485,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -783,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2231,7 +2254,9 @@
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
-      <c r="H50" s="7"/>
+      <c r="H50" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
@@ -2247,7 +2272,9 @@
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
-      <c r="H51" s="7"/>
+      <c r="H51" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
       <c r="K51" s="7"/>
@@ -2378,117 +2405,42 @@
       <c r="L59" s="7"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="7"/>
-      <c r="L60" s="7"/>
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A61" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
-      <c r="K61" s="7"/>
-      <c r="L61" s="7"/>
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A62" s="13"/>
-      <c r="B62" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="7"/>
-      <c r="K62" s="7"/>
-      <c r="L62" s="7"/>
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A63" s="13"/>
-      <c r="B63" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
-      <c r="L63" s="7"/>
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A64" s="13"/>
-      <c r="B64" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="7"/>
-      <c r="K64" s="7"/>
-      <c r="L64" s="7"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A65" s="14"/>
-      <c r="B65" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
-      <c r="K65" s="7"/>
-      <c r="L65" s="7"/>
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A65" s="7"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A61:A65"/>
-  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2496,25 +2448,1430 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:M4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="11" max="11" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3">
+        <v>66.5</v>
+      </c>
+      <c r="C2" s="2">
+        <v>92.5</v>
+      </c>
+      <c r="D2" s="2">
+        <v>95.5</v>
+      </c>
+      <c r="E2" s="2">
+        <v>98</v>
+      </c>
+      <c r="F2" s="2">
+        <v>86.5</v>
+      </c>
+      <c r="G2" s="2">
+        <v>71</v>
+      </c>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3">
+        <v>73.5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>91.5</v>
+      </c>
+      <c r="D3" s="2">
+        <v>64.5</v>
+      </c>
+      <c r="E3" s="2">
+        <v>93.5</v>
+      </c>
+      <c r="F3" s="2">
+        <v>84</v>
+      </c>
+      <c r="G3" s="2">
+        <v>87</v>
+      </c>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3">
+        <v>75.5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>62.5</v>
+      </c>
+      <c r="D4" s="2">
+        <v>87</v>
+      </c>
+      <c r="E4" s="2">
+        <v>94.5</v>
+      </c>
+      <c r="F4" s="2">
+        <v>78</v>
+      </c>
+      <c r="G4" s="2">
+        <v>91</v>
+      </c>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="3">
+        <v>79.5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>98.5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>68</v>
+      </c>
+      <c r="E5" s="2">
+        <v>100</v>
+      </c>
+      <c r="F5" s="2">
+        <v>96</v>
+      </c>
+      <c r="G5" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3">
+        <v>82.5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>63.5</v>
+      </c>
+      <c r="D6" s="2">
+        <v>90.5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>97</v>
+      </c>
+      <c r="F6" s="2">
+        <v>65.5</v>
+      </c>
+      <c r="G6" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="3">
+        <v>82.5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>78</v>
+      </c>
+      <c r="D7" s="2">
+        <v>81</v>
+      </c>
+      <c r="E7" s="2">
+        <v>96.5</v>
+      </c>
+      <c r="F7" s="2">
+        <v>96.5</v>
+      </c>
+      <c r="G7" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="3">
+        <v>84.5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>71</v>
+      </c>
+      <c r="D8" s="2">
+        <v>99.5</v>
+      </c>
+      <c r="E8" s="2">
+        <v>89.5</v>
+      </c>
+      <c r="F8" s="2">
+        <v>84.5</v>
+      </c>
+      <c r="G8" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="3">
+        <v>87.5</v>
+      </c>
+      <c r="C9" s="2">
+        <v>63.5</v>
+      </c>
+      <c r="D9" s="2">
+        <v>67.5</v>
+      </c>
+      <c r="E9" s="2">
+        <v>98.5</v>
+      </c>
+      <c r="F9" s="2">
+        <v>78.5</v>
+      </c>
+      <c r="G9" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="3">
+        <v>88</v>
+      </c>
+      <c r="C10" s="2">
+        <v>82.5</v>
+      </c>
+      <c r="D10" s="2">
+        <v>83</v>
+      </c>
+      <c r="E10" s="2">
+        <v>75.5</v>
+      </c>
+      <c r="F10" s="2">
+        <v>72</v>
+      </c>
+      <c r="G10" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="3">
+        <v>92</v>
+      </c>
+      <c r="C11" s="2">
+        <v>64</v>
+      </c>
+      <c r="D11" s="2">
+        <v>97</v>
+      </c>
+      <c r="E11" s="2">
+        <v>93</v>
+      </c>
+      <c r="F11" s="2">
+        <v>75</v>
+      </c>
+      <c r="G11" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="3">
+        <v>93</v>
+      </c>
+      <c r="C12" s="2">
+        <v>71.5</v>
+      </c>
+      <c r="D12" s="2">
+        <v>92</v>
+      </c>
+      <c r="E12" s="2">
+        <v>96.5</v>
+      </c>
+      <c r="F12" s="2">
+        <v>87</v>
+      </c>
+      <c r="G12" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="3">
+        <v>93.5</v>
+      </c>
+      <c r="C13" s="2">
+        <v>85.5</v>
+      </c>
+      <c r="D13" s="2">
+        <v>77</v>
+      </c>
+      <c r="E13" s="2">
+        <v>81</v>
+      </c>
+      <c r="F13" s="2">
+        <v>95</v>
+      </c>
+      <c r="G13" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="3">
+        <v>96</v>
+      </c>
+      <c r="C14" s="2">
+        <v>72.5</v>
+      </c>
+      <c r="D14" s="2">
+        <v>100</v>
+      </c>
+      <c r="E14" s="2">
+        <v>86</v>
+      </c>
+      <c r="F14" s="2">
+        <v>62</v>
+      </c>
+      <c r="G14" s="2">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="3">
+        <v>96.5</v>
+      </c>
+      <c r="C15" s="2">
+        <v>86.5</v>
+      </c>
+      <c r="D15" s="2">
+        <v>90.5</v>
+      </c>
+      <c r="E15" s="2">
+        <v>94</v>
+      </c>
+      <c r="F15" s="2">
+        <v>99.5</v>
+      </c>
+      <c r="G15" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="3">
+        <v>97.5</v>
+      </c>
+      <c r="C16" s="2">
+        <v>76</v>
+      </c>
+      <c r="D16" s="2">
+        <v>72</v>
+      </c>
+      <c r="E16" s="2">
+        <v>92.5</v>
+      </c>
+      <c r="F16" s="2">
+        <v>84.5</v>
+      </c>
+      <c r="G16" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="3">
+        <v>56</v>
+      </c>
+      <c r="C17" s="2">
+        <v>77.5</v>
+      </c>
+      <c r="D17" s="2">
+        <v>85</v>
+      </c>
+      <c r="E17" s="2">
+        <v>83</v>
+      </c>
+      <c r="F17" s="2">
+        <v>74.5</v>
+      </c>
+      <c r="G17" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="3">
+        <v>58.5</v>
+      </c>
+      <c r="C18" s="2">
+        <v>90</v>
+      </c>
+      <c r="D18" s="2">
+        <v>88.5</v>
+      </c>
+      <c r="E18" s="2">
+        <v>97</v>
+      </c>
+      <c r="F18" s="2">
+        <v>72</v>
+      </c>
+      <c r="G18" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="3">
+        <v>63</v>
+      </c>
+      <c r="C19" s="2">
+        <v>99.5</v>
+      </c>
+      <c r="D19" s="2">
+        <v>78.5</v>
+      </c>
+      <c r="E19" s="2">
+        <v>63.5</v>
+      </c>
+      <c r="F19" s="2">
+        <v>79.5</v>
+      </c>
+      <c r="G19" s="2">
+        <v>65.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="3">
+        <v>69</v>
+      </c>
+      <c r="C20" s="2">
+        <v>89.5</v>
+      </c>
+      <c r="D20" s="2">
+        <v>92.5</v>
+      </c>
+      <c r="E20" s="2">
+        <v>73</v>
+      </c>
+      <c r="F20" s="2">
+        <v>58.5</v>
+      </c>
+      <c r="G20" s="2">
+        <v>96.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="3">
+        <v>72.5</v>
+      </c>
+      <c r="C21" s="2">
+        <v>74.5</v>
+      </c>
+      <c r="D21" s="2">
+        <v>60.5</v>
+      </c>
+      <c r="E21" s="2">
+        <v>87</v>
+      </c>
+      <c r="F21" s="2">
+        <v>77</v>
+      </c>
+      <c r="G21" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="3">
+        <v>74</v>
+      </c>
+      <c r="C22" s="2">
+        <v>72.5</v>
+      </c>
+      <c r="D22" s="2">
+        <v>67</v>
+      </c>
+      <c r="E22" s="2">
+        <v>94</v>
+      </c>
+      <c r="F22" s="2">
+        <v>78</v>
+      </c>
+      <c r="G22" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="3">
+        <v>75.5</v>
+      </c>
+      <c r="C23" s="2">
+        <v>72.5</v>
+      </c>
+      <c r="D23" s="2">
+        <v>75</v>
+      </c>
+      <c r="E23" s="2">
+        <v>92</v>
+      </c>
+      <c r="F23" s="2">
+        <v>86</v>
+      </c>
+      <c r="G23" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="3">
+        <v>76.5</v>
+      </c>
+      <c r="C24" s="2">
+        <v>70</v>
+      </c>
+      <c r="D24" s="2">
+        <v>64</v>
+      </c>
+      <c r="E24" s="2">
+        <v>75</v>
+      </c>
+      <c r="F24" s="2">
+        <v>87</v>
+      </c>
+      <c r="G24" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="3">
+        <v>77</v>
+      </c>
+      <c r="C25" s="2">
+        <v>60.5</v>
+      </c>
+      <c r="D25" s="2">
+        <v>66.5</v>
+      </c>
+      <c r="E25" s="2">
+        <v>84</v>
+      </c>
+      <c r="F25" s="2">
+        <v>98</v>
+      </c>
+      <c r="G25" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="3">
+        <v>80.5</v>
+      </c>
+      <c r="C26" s="2">
+        <v>96</v>
+      </c>
+      <c r="D26" s="2">
+        <v>72</v>
+      </c>
+      <c r="E26" s="2">
+        <v>66</v>
+      </c>
+      <c r="F26" s="2">
+        <v>61</v>
+      </c>
+      <c r="G26" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="3">
+        <v>83.5</v>
+      </c>
+      <c r="C27" s="2">
+        <v>78.5</v>
+      </c>
+      <c r="D27" s="2">
+        <v>70.5</v>
+      </c>
+      <c r="E27" s="2">
+        <v>100</v>
+      </c>
+      <c r="F27" s="2">
+        <v>68.5</v>
+      </c>
+      <c r="G27" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="3">
+        <v>84.5</v>
+      </c>
+      <c r="C28" s="2">
+        <v>78.5</v>
+      </c>
+      <c r="D28" s="2">
+        <v>87.5</v>
+      </c>
+      <c r="E28" s="2">
+        <v>64.5</v>
+      </c>
+      <c r="F28" s="2">
+        <v>72</v>
+      </c>
+      <c r="G28" s="2">
+        <v>76.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="3">
+        <v>92.5</v>
+      </c>
+      <c r="C29" s="2">
+        <v>93.5</v>
+      </c>
+      <c r="D29" s="2">
+        <v>77</v>
+      </c>
+      <c r="E29" s="2">
+        <v>73</v>
+      </c>
+      <c r="F29" s="2">
+        <v>57</v>
+      </c>
+      <c r="G29" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="3">
+        <v>95</v>
+      </c>
+      <c r="C30" s="2">
+        <v>95</v>
+      </c>
+      <c r="D30" s="2">
+        <v>70</v>
+      </c>
+      <c r="E30" s="2">
+        <v>89.5</v>
+      </c>
+      <c r="F30" s="2">
+        <v>61.5</v>
+      </c>
+      <c r="G30" s="2">
+        <v>61.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="3">
+        <v>97</v>
+      </c>
+      <c r="C31" s="2">
+        <v>75.5</v>
+      </c>
+      <c r="D31" s="2">
+        <v>73</v>
+      </c>
+      <c r="E31" s="2">
+        <v>81</v>
+      </c>
+      <c r="F31" s="2">
+        <v>66</v>
+      </c>
+      <c r="G31" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="3">
+        <v>62.5</v>
+      </c>
+      <c r="C32" s="2">
+        <v>76</v>
+      </c>
+      <c r="D32" s="2">
+        <v>57</v>
+      </c>
+      <c r="E32" s="2">
+        <v>67.5</v>
+      </c>
+      <c r="F32" s="2">
+        <v>88</v>
+      </c>
+      <c r="G32" s="2">
+        <v>84.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="3">
+        <v>62.5</v>
+      </c>
+      <c r="C33" s="2">
+        <v>57.5</v>
+      </c>
+      <c r="D33" s="2">
+        <v>85</v>
+      </c>
+      <c r="E33" s="2">
+        <v>59</v>
+      </c>
+      <c r="F33" s="2">
+        <v>79</v>
+      </c>
+      <c r="G33" s="2">
+        <v>61.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="3">
+        <v>63.5</v>
+      </c>
+      <c r="C34" s="2">
+        <v>73</v>
+      </c>
+      <c r="D34" s="2">
+        <v>65</v>
+      </c>
+      <c r="E34" s="2">
+        <v>95</v>
+      </c>
+      <c r="F34" s="2">
+        <v>75.5</v>
+      </c>
+      <c r="G34" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="3">
+        <v>68</v>
+      </c>
+      <c r="C35" s="2">
+        <v>97.5</v>
+      </c>
+      <c r="D35" s="2">
+        <v>61</v>
+      </c>
+      <c r="E35" s="2">
+        <v>57</v>
+      </c>
+      <c r="F35" s="2">
+        <v>60</v>
+      </c>
+      <c r="G35" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="3">
+        <v>71.5</v>
+      </c>
+      <c r="C36" s="2">
+        <v>61.5</v>
+      </c>
+      <c r="D36" s="2">
+        <v>82</v>
+      </c>
+      <c r="E36" s="2">
+        <v>57.5</v>
+      </c>
+      <c r="F36" s="2">
+        <v>57</v>
+      </c>
+      <c r="G36" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="3">
+        <v>71.5</v>
+      </c>
+      <c r="C37" s="2">
+        <v>59.5</v>
+      </c>
+      <c r="D37" s="2">
+        <v>88</v>
+      </c>
+      <c r="E37" s="2">
+        <v>63</v>
+      </c>
+      <c r="F37" s="2">
+        <v>88</v>
+      </c>
+      <c r="G37" s="2">
+        <v>60.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="3">
+        <v>75</v>
+      </c>
+      <c r="C38" s="2">
+        <v>71</v>
+      </c>
+      <c r="D38" s="2">
+        <v>86</v>
+      </c>
+      <c r="E38" s="2">
+        <v>60.5</v>
+      </c>
+      <c r="F38" s="2">
+        <v>60</v>
+      </c>
+      <c r="G38" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="3">
+        <v>75.5</v>
+      </c>
+      <c r="C39" s="2">
+        <v>60.5</v>
+      </c>
+      <c r="D39" s="2">
+        <v>85</v>
+      </c>
+      <c r="E39" s="2">
+        <v>57</v>
+      </c>
+      <c r="F39" s="2">
+        <v>76</v>
+      </c>
+      <c r="G39" s="2">
+        <v>83.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="3">
+        <v>76</v>
+      </c>
+      <c r="C40" s="2">
+        <v>63.5</v>
+      </c>
+      <c r="D40" s="2">
+        <v>84</v>
+      </c>
+      <c r="E40" s="2">
+        <v>81</v>
+      </c>
+      <c r="F40" s="2">
+        <v>65</v>
+      </c>
+      <c r="G40" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" s="3">
+        <v>81</v>
+      </c>
+      <c r="C41" s="2">
+        <v>55.5</v>
+      </c>
+      <c r="D41" s="2">
+        <v>61</v>
+      </c>
+      <c r="E41" s="2">
+        <v>91.5</v>
+      </c>
+      <c r="F41" s="2">
+        <v>81</v>
+      </c>
+      <c r="G41" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" s="3">
+        <v>85.5</v>
+      </c>
+      <c r="C42" s="2">
+        <v>64.5</v>
+      </c>
+      <c r="D42" s="2">
+        <v>74</v>
+      </c>
+      <c r="E42" s="2">
+        <v>78.5</v>
+      </c>
+      <c r="F42" s="2">
+        <v>64</v>
+      </c>
+      <c r="G42" s="2">
+        <v>76.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="3">
+        <v>86.5</v>
+      </c>
+      <c r="C43" s="2">
+        <v>65.5</v>
+      </c>
+      <c r="D43" s="2">
+        <v>67.5</v>
+      </c>
+      <c r="E43" s="2">
+        <v>70.5</v>
+      </c>
+      <c r="F43" s="2">
+        <v>62</v>
+      </c>
+      <c r="G43" s="2">
+        <v>73.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A44" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="3">
+        <v>94</v>
+      </c>
+      <c r="C44" s="2">
+        <v>68.5</v>
+      </c>
+      <c r="D44" s="2">
+        <v>78</v>
+      </c>
+      <c r="E44" s="2">
+        <v>60.5</v>
+      </c>
+      <c r="F44" s="2">
+        <v>76</v>
+      </c>
+      <c r="G44" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A45" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="3">
+        <v>96.5</v>
+      </c>
+      <c r="C45" s="2">
+        <v>74.5</v>
+      </c>
+      <c r="D45" s="2">
+        <v>63</v>
+      </c>
+      <c r="E45" s="2">
+        <v>66</v>
+      </c>
+      <c r="F45" s="2">
+        <v>71</v>
+      </c>
+      <c r="G45" s="2">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K1:M4"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3">
+        <v>66.5</v>
+      </c>
+      <c r="C2" s="2">
+        <v>92.5</v>
+      </c>
+      <c r="D2" s="2">
+        <v>95.5</v>
+      </c>
+      <c r="E2" s="2">
+        <v>98</v>
+      </c>
+      <c r="F2" s="2">
+        <v>86.5</v>
+      </c>
+      <c r="G2" s="2">
+        <v>71</v>
+      </c>
+      <c r="H2" s="13"/>
+      <c r="K2" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3">
+        <v>73.5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>91.5</v>
+      </c>
+      <c r="D3" s="2">
+        <v>64.5</v>
+      </c>
+      <c r="E3" s="2">
+        <v>93.5</v>
+      </c>
+      <c r="F3" s="2">
+        <v>84</v>
+      </c>
+      <c r="G3" s="2">
+        <v>87</v>
+      </c>
+      <c r="H3" s="13"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3">
+        <v>75.5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>62.5</v>
+      </c>
+      <c r="D4" s="2">
+        <v>87</v>
+      </c>
+      <c r="E4" s="2">
+        <v>94.5</v>
+      </c>
+      <c r="F4" s="2">
+        <v>78</v>
+      </c>
+      <c r="G4" s="2">
+        <v>91</v>
+      </c>
+      <c r="H4" s="13"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="3">
+        <v>79.5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>98.5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>68</v>
+      </c>
+      <c r="E5" s="2">
+        <v>100</v>
+      </c>
+      <c r="F5" s="2">
+        <v>96</v>
+      </c>
+      <c r="G5" s="2">
+        <v>66</v>
+      </c>
+      <c r="H5" s="13"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3">
+        <v>82.5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>63.5</v>
+      </c>
+      <c r="D6" s="2">
+        <v>90.5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>97</v>
+      </c>
+      <c r="F6" s="2">
+        <v>65.5</v>
+      </c>
+      <c r="G6" s="2">
+        <v>99</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="3">
+        <v>82.5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>78</v>
+      </c>
+      <c r="D7" s="2">
+        <v>81</v>
+      </c>
+      <c r="E7" s="2">
+        <v>96.5</v>
+      </c>
+      <c r="F7" s="2">
+        <v>96.5</v>
+      </c>
+      <c r="G7" s="2">
+        <v>57</v>
+      </c>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="3">
+        <v>84.5</v>
+      </c>
+      <c r="C8" s="2">
+        <v>71</v>
+      </c>
+      <c r="D8" s="2">
+        <v>99.5</v>
+      </c>
+      <c r="E8" s="2">
+        <v>89.5</v>
+      </c>
+      <c r="F8" s="2">
+        <v>84.5</v>
+      </c>
+      <c r="G8" s="2">
+        <v>58</v>
+      </c>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="3">
+        <v>87.5</v>
+      </c>
+      <c r="C9" s="2">
+        <v>63.5</v>
+      </c>
+      <c r="D9" s="2">
+        <v>67.5</v>
+      </c>
+      <c r="E9" s="2">
+        <v>98.5</v>
+      </c>
+      <c r="F9" s="2">
+        <v>78.5</v>
+      </c>
+      <c r="G9" s="2">
+        <v>94</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="M9" s="12"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="3">
+        <v>88</v>
+      </c>
+      <c r="C10" s="2">
+        <v>82.5</v>
+      </c>
+      <c r="D10" s="2">
+        <v>83</v>
+      </c>
+      <c r="E10" s="2">
+        <v>75.5</v>
+      </c>
+      <c r="F10" s="2">
+        <v>72</v>
+      </c>
+      <c r="G10" s="2">
+        <v>90</v>
+      </c>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="3">
+        <v>92</v>
+      </c>
+      <c r="C11" s="2">
+        <v>64</v>
+      </c>
+      <c r="D11" s="2">
+        <v>97</v>
+      </c>
+      <c r="E11" s="2">
+        <v>93</v>
+      </c>
+      <c r="F11" s="2">
+        <v>75</v>
+      </c>
+      <c r="G11" s="2">
+        <v>93</v>
+      </c>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="3">
+        <v>93</v>
+      </c>
+      <c r="C12" s="2">
+        <v>71.5</v>
+      </c>
+      <c r="D12" s="2">
+        <v>92</v>
+      </c>
+      <c r="E12" s="2">
+        <v>96.5</v>
+      </c>
+      <c r="F12" s="2">
+        <v>87</v>
+      </c>
+      <c r="G12" s="2">
+        <v>61</v>
+      </c>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="3">
+        <v>93.5</v>
+      </c>
+      <c r="C13" s="2">
+        <v>85.5</v>
+      </c>
+      <c r="D13" s="2">
+        <v>77</v>
+      </c>
+      <c r="E13" s="2">
+        <v>81</v>
+      </c>
+      <c r="F13" s="2">
+        <v>95</v>
+      </c>
+      <c r="G13" s="2">
+        <v>78</v>
+      </c>
+      <c r="H13" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K2:N6"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/第4章excel/公式和函数/函数练习.xlsx
+++ b/第4章excel/公式和函数/函数练习.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="练习1" sheetId="1" r:id="rId1"/>
@@ -253,10 +253,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>要求：计算总分，总分不包括革命史，与普通物理的成绩，并使用:与,引用单元格</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>分数1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -282,6 +278,10 @@
   </si>
   <si>
     <t>综合得分为去掉一个最高分，再去掉一个最低分，剩下的4个成绩求平均分，结果保留2为小数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求：计算总分，总分不包括革命史，与普通物理的成绩。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -806,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2450,8 +2450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:M4"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2485,7 +2485,7 @@
         <v>71</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="L1" s="15"/>
       <c r="M1" s="15"/>
@@ -3525,8 +3525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3536,25 +3536,25 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="11" t="s">
         <v>78</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
@@ -3581,7 +3581,7 @@
       </c>
       <c r="H2" s="13"/>
       <c r="K2" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L2" s="17"/>
       <c r="M2" s="17"/>

--- a/第4章excel/公式和函数/函数练习.xlsx
+++ b/第4章excel/公式和函数/函数练习.xlsx
@@ -804,15 +804,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L65"/>
+  <dimension ref="A1:M65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+      <selection activeCell="L2" sqref="L2:L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -850,7 +850,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -878,11 +878,14 @@
       <c r="I2" s="2">
         <v>71</v>
       </c>
-      <c r="J2" s="4"/>
+      <c r="J2" s="4">
+        <f>SUM(D2:I2)</f>
+        <v>510</v>
+      </c>
       <c r="K2" s="5"/>
       <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -910,11 +913,14 @@
       <c r="I3" s="2">
         <v>87</v>
       </c>
-      <c r="J3" s="4"/>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J45" si="0">SUM(D3:I3)</f>
+        <v>494</v>
+      </c>
       <c r="K3" s="5"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>16</v>
@@ -940,11 +946,14 @@
       <c r="I4" s="2">
         <v>91</v>
       </c>
-      <c r="J4" s="4"/>
+      <c r="J4" s="4">
+        <f t="shared" si="0"/>
+        <v>488.5</v>
+      </c>
       <c r="K4" s="5"/>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>18</v>
@@ -970,11 +979,14 @@
       <c r="I5" s="2">
         <v>66</v>
       </c>
-      <c r="J5" s="4"/>
+      <c r="J5" s="4">
+        <f t="shared" si="0"/>
+        <v>508</v>
+      </c>
       <c r="K5" s="5"/>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>19</v>
@@ -1000,11 +1012,18 @@
       <c r="I6" s="2">
         <v>99</v>
       </c>
-      <c r="J6" s="4"/>
+      <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>498</v>
+      </c>
       <c r="K6" s="5"/>
       <c r="L6" s="6"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M6" t="str">
+        <f t="shared" ref="M6:M45" si="1">IF(AND(J6&gt;=500,E6&gt;=90),"满足条件","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>20</v>
@@ -1030,11 +1049,18 @@
       <c r="I7" s="2">
         <v>57</v>
       </c>
-      <c r="J7" s="4"/>
+      <c r="J7" s="4">
+        <f t="shared" si="0"/>
+        <v>491.5</v>
+      </c>
       <c r="K7" s="5"/>
       <c r="L7" s="6"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>21</v>
@@ -1060,11 +1086,18 @@
       <c r="I8" s="2">
         <v>58</v>
       </c>
-      <c r="J8" s="4"/>
+      <c r="J8" s="4">
+        <f t="shared" si="0"/>
+        <v>487</v>
+      </c>
       <c r="K8" s="5"/>
       <c r="L8" s="6"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>22</v>
@@ -1090,11 +1123,18 @@
       <c r="I9" s="2">
         <v>94</v>
       </c>
-      <c r="J9" s="4"/>
+      <c r="J9" s="4">
+        <f t="shared" si="0"/>
+        <v>489.5</v>
+      </c>
       <c r="K9" s="5"/>
       <c r="L9" s="6"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
         <v>23</v>
@@ -1120,11 +1160,18 @@
       <c r="I10" s="2">
         <v>90</v>
       </c>
-      <c r="J10" s="4"/>
+      <c r="J10" s="4">
+        <f t="shared" si="0"/>
+        <v>491</v>
+      </c>
       <c r="K10" s="5"/>
       <c r="L10" s="6"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>24</v>
@@ -1150,11 +1197,18 @@
       <c r="I11" s="2">
         <v>93</v>
       </c>
-      <c r="J11" s="4"/>
+      <c r="J11" s="4">
+        <f t="shared" si="0"/>
+        <v>514</v>
+      </c>
       <c r="K11" s="5"/>
       <c r="L11" s="6"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>25</v>
@@ -1180,11 +1234,18 @@
       <c r="I12" s="2">
         <v>61</v>
       </c>
-      <c r="J12" s="4"/>
+      <c r="J12" s="4">
+        <f t="shared" si="0"/>
+        <v>501</v>
+      </c>
       <c r="K12" s="5"/>
       <c r="L12" s="6"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>26</v>
@@ -1210,11 +1271,18 @@
       <c r="I13" s="2">
         <v>78</v>
       </c>
-      <c r="J13" s="4"/>
+      <c r="J13" s="4">
+        <f t="shared" si="0"/>
+        <v>510</v>
+      </c>
       <c r="K13" s="5"/>
       <c r="L13" s="6"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>27</v>
@@ -1240,11 +1308,18 @@
       <c r="I14" s="2">
         <v>87.5</v>
       </c>
-      <c r="J14" s="4"/>
+      <c r="J14" s="4">
+        <f t="shared" si="0"/>
+        <v>504</v>
+      </c>
       <c r="K14" s="5"/>
       <c r="L14" s="6"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>28</v>
@@ -1270,11 +1345,18 @@
       <c r="I15" s="2">
         <v>70</v>
       </c>
-      <c r="J15" s="4"/>
+      <c r="J15" s="4">
+        <f t="shared" si="0"/>
+        <v>537</v>
+      </c>
       <c r="K15" s="5"/>
       <c r="L15" s="6"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>29</v>
@@ -1300,11 +1382,18 @@
       <c r="I16" s="2">
         <v>78</v>
       </c>
-      <c r="J16" s="4"/>
+      <c r="J16" s="4">
+        <f t="shared" si="0"/>
+        <v>500.5</v>
+      </c>
       <c r="K16" s="5"/>
       <c r="L16" s="6"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>30</v>
@@ -1330,11 +1419,18 @@
       <c r="I17" s="2">
         <v>79</v>
       </c>
-      <c r="J17" s="4"/>
+      <c r="J17" s="4">
+        <f t="shared" si="0"/>
+        <v>455</v>
+      </c>
       <c r="K17" s="5"/>
       <c r="L17" s="6"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M17" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>31</v>
@@ -1360,11 +1456,18 @@
       <c r="I18" s="2">
         <v>65</v>
       </c>
-      <c r="J18" s="4"/>
+      <c r="J18" s="4">
+        <f t="shared" si="0"/>
+        <v>471</v>
+      </c>
       <c r="K18" s="5"/>
       <c r="L18" s="6"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M18" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>32</v>
@@ -1390,11 +1493,18 @@
       <c r="I19" s="2">
         <v>65.5</v>
       </c>
-      <c r="J19" s="4"/>
+      <c r="J19" s="4">
+        <f t="shared" si="0"/>
+        <v>449.5</v>
+      </c>
       <c r="K19" s="5"/>
       <c r="L19" s="6"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
         <v>33</v>
@@ -1420,11 +1530,18 @@
       <c r="I20" s="2">
         <v>96.5</v>
       </c>
-      <c r="J20" s="4"/>
+      <c r="J20" s="4">
+        <f t="shared" si="0"/>
+        <v>479</v>
+      </c>
       <c r="K20" s="5"/>
       <c r="L20" s="6"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
         <v>34</v>
@@ -1450,11 +1567,18 @@
       <c r="I21" s="2">
         <v>78</v>
       </c>
-      <c r="J21" s="4"/>
+      <c r="J21" s="4">
+        <f t="shared" si="0"/>
+        <v>449.5</v>
+      </c>
       <c r="K21" s="5"/>
       <c r="L21" s="6"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M21" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
         <v>35</v>
@@ -1480,11 +1604,18 @@
       <c r="I22" s="2">
         <v>90</v>
       </c>
-      <c r="J22" s="4"/>
+      <c r="J22" s="4">
+        <f t="shared" si="0"/>
+        <v>475.5</v>
+      </c>
       <c r="K22" s="5"/>
       <c r="L22" s="6"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
         <v>36</v>
@@ -1510,11 +1641,18 @@
       <c r="I23" s="2">
         <v>55</v>
       </c>
-      <c r="J23" s="4"/>
+      <c r="J23" s="4">
+        <f t="shared" si="0"/>
+        <v>456</v>
+      </c>
       <c r="K23" s="5"/>
       <c r="L23" s="6"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
         <v>37</v>
@@ -1540,11 +1678,18 @@
       <c r="I24" s="2">
         <v>78</v>
       </c>
-      <c r="J24" s="4"/>
+      <c r="J24" s="4">
+        <f t="shared" si="0"/>
+        <v>450.5</v>
+      </c>
       <c r="K24" s="5"/>
       <c r="L24" s="6"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
         <v>38</v>
@@ -1570,11 +1715,18 @@
       <c r="I25" s="2">
         <v>93</v>
       </c>
-      <c r="J25" s="4"/>
+      <c r="J25" s="4">
+        <f t="shared" si="0"/>
+        <v>479</v>
+      </c>
       <c r="K25" s="5"/>
       <c r="L25" s="6"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M25" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
         <v>39</v>
@@ -1600,11 +1752,18 @@
       <c r="I26" s="2">
         <v>85</v>
       </c>
-      <c r="J26" s="4"/>
+      <c r="J26" s="4">
+        <f t="shared" si="0"/>
+        <v>460.5</v>
+      </c>
       <c r="K26" s="5"/>
       <c r="L26" s="6"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
         <v>40</v>
@@ -1630,11 +1789,18 @@
       <c r="I27" s="2">
         <v>69</v>
       </c>
-      <c r="J27" s="4"/>
+      <c r="J27" s="4">
+        <f t="shared" si="0"/>
+        <v>470</v>
+      </c>
       <c r="K27" s="5"/>
       <c r="L27" s="6"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M27" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
         <v>41</v>
@@ -1660,11 +1826,18 @@
       <c r="I28" s="2">
         <v>76.5</v>
       </c>
-      <c r="J28" s="4"/>
+      <c r="J28" s="4">
+        <f t="shared" si="0"/>
+        <v>463.5</v>
+      </c>
       <c r="K28" s="5"/>
       <c r="L28" s="6"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
       <c r="B29" s="2" t="s">
         <v>42</v>
@@ -1690,11 +1863,18 @@
       <c r="I29" s="2">
         <v>84</v>
       </c>
-      <c r="J29" s="4"/>
+      <c r="J29" s="4">
+        <f t="shared" si="0"/>
+        <v>477</v>
+      </c>
       <c r="K29" s="5"/>
       <c r="L29" s="6"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M29" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
         <v>43</v>
@@ -1720,11 +1900,18 @@
       <c r="I30" s="2">
         <v>61.5</v>
       </c>
-      <c r="J30" s="4"/>
+      <c r="J30" s="4">
+        <f t="shared" si="0"/>
+        <v>472.5</v>
+      </c>
       <c r="K30" s="5"/>
       <c r="L30" s="6"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
         <v>44</v>
@@ -1750,11 +1937,18 @@
       <c r="I31" s="2">
         <v>76</v>
       </c>
-      <c r="J31" s="4"/>
+      <c r="J31" s="4">
+        <f t="shared" si="0"/>
+        <v>468.5</v>
+      </c>
       <c r="K31" s="5"/>
       <c r="L31" s="6"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
         <v>45</v>
@@ -1780,11 +1974,18 @@
       <c r="I32" s="2">
         <v>84.5</v>
       </c>
-      <c r="J32" s="4"/>
+      <c r="J32" s="4">
+        <f t="shared" si="0"/>
+        <v>435.5</v>
+      </c>
       <c r="K32" s="5"/>
       <c r="L32" s="6"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A33" s="2"/>
       <c r="B33" s="2" t="s">
         <v>46</v>
@@ -1810,11 +2011,18 @@
       <c r="I33" s="2">
         <v>61.5</v>
       </c>
-      <c r="J33" s="4"/>
+      <c r="J33" s="4">
+        <f t="shared" si="0"/>
+        <v>404.5</v>
+      </c>
       <c r="K33" s="5"/>
       <c r="L33" s="6"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A34" s="2"/>
       <c r="B34" s="2" t="s">
         <v>47</v>
@@ -1840,11 +2048,18 @@
       <c r="I34" s="2">
         <v>61</v>
       </c>
-      <c r="J34" s="4"/>
+      <c r="J34" s="4">
+        <f t="shared" si="0"/>
+        <v>433</v>
+      </c>
       <c r="K34" s="5"/>
       <c r="L34" s="6"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M34" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A35" s="2"/>
       <c r="B35" s="2" t="s">
         <v>48</v>
@@ -1870,11 +2085,18 @@
       <c r="I35" s="2">
         <v>85</v>
       </c>
-      <c r="J35" s="4"/>
+      <c r="J35" s="4">
+        <f t="shared" si="0"/>
+        <v>428.5</v>
+      </c>
       <c r="K35" s="5"/>
       <c r="L35" s="6"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M35" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A36" s="2"/>
       <c r="B36" s="2" t="s">
         <v>49</v>
@@ -1900,11 +2122,18 @@
       <c r="I36" s="2">
         <v>85</v>
       </c>
-      <c r="J36" s="4"/>
+      <c r="J36" s="4">
+        <f t="shared" si="0"/>
+        <v>414.5</v>
+      </c>
       <c r="K36" s="5"/>
       <c r="L36" s="6"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M36" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A37" s="2"/>
       <c r="B37" s="2" t="s">
         <v>50</v>
@@ -1930,11 +2159,18 @@
       <c r="I37" s="2">
         <v>60.5</v>
       </c>
-      <c r="J37" s="4"/>
+      <c r="J37" s="4">
+        <f t="shared" si="0"/>
+        <v>430.5</v>
+      </c>
       <c r="K37" s="5"/>
       <c r="L37" s="6"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M37" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A38" s="2"/>
       <c r="B38" s="2" t="s">
         <v>51</v>
@@ -1960,11 +2196,18 @@
       <c r="I38" s="2">
         <v>85</v>
       </c>
-      <c r="J38" s="4"/>
+      <c r="J38" s="4">
+        <f t="shared" si="0"/>
+        <v>437.5</v>
+      </c>
       <c r="K38" s="5"/>
       <c r="L38" s="6"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M38" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A39" s="2"/>
       <c r="B39" s="2" t="s">
         <v>52</v>
@@ -1990,11 +2233,18 @@
       <c r="I39" s="2">
         <v>83.5</v>
       </c>
-      <c r="J39" s="4"/>
+      <c r="J39" s="4">
+        <f t="shared" si="0"/>
+        <v>437.5</v>
+      </c>
       <c r="K39" s="5"/>
       <c r="L39" s="6"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M39" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
         <v>53</v>
@@ -2020,11 +2270,18 @@
       <c r="I40" s="2">
         <v>62</v>
       </c>
-      <c r="J40" s="4"/>
+      <c r="J40" s="4">
+        <f t="shared" si="0"/>
+        <v>431.5</v>
+      </c>
       <c r="K40" s="5"/>
       <c r="L40" s="6"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M40" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A41" s="2"/>
       <c r="B41" s="2" t="s">
         <v>54</v>
@@ -2050,11 +2307,18 @@
       <c r="I41" s="2">
         <v>59</v>
       </c>
-      <c r="J41" s="4"/>
+      <c r="J41" s="4">
+        <f t="shared" si="0"/>
+        <v>429</v>
+      </c>
       <c r="K41" s="5"/>
       <c r="L41" s="6"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
         <v>55</v>
@@ -2080,11 +2344,18 @@
       <c r="I42" s="2">
         <v>76.5</v>
       </c>
-      <c r="J42" s="4"/>
+      <c r="J42" s="4">
+        <f t="shared" si="0"/>
+        <v>443</v>
+      </c>
       <c r="K42" s="5"/>
       <c r="L42" s="6"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M42" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A43" s="2"/>
       <c r="B43" s="2" t="s">
         <v>56</v>
@@ -2110,11 +2381,18 @@
       <c r="I43" s="2">
         <v>73.5</v>
       </c>
-      <c r="J43" s="4"/>
+      <c r="J43" s="4">
+        <f t="shared" si="0"/>
+        <v>425.5</v>
+      </c>
       <c r="K43" s="5"/>
       <c r="L43" s="6"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M43" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A44" s="2"/>
       <c r="B44" s="2" t="s">
         <v>57</v>
@@ -2140,11 +2418,18 @@
       <c r="I44" s="2">
         <v>67</v>
       </c>
-      <c r="J44" s="4"/>
+      <c r="J44" s="4">
+        <f t="shared" si="0"/>
+        <v>444</v>
+      </c>
       <c r="K44" s="5"/>
       <c r="L44" s="6"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M44" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A45" s="2"/>
       <c r="B45" s="2" t="s">
         <v>58</v>
@@ -2170,11 +2455,18 @@
       <c r="I45" s="2">
         <v>69</v>
       </c>
-      <c r="J45" s="4"/>
+      <c r="J45" s="4">
+        <f t="shared" si="0"/>
+        <v>440</v>
+      </c>
       <c r="K45" s="5"/>
       <c r="L45" s="6"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M45" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -2188,7 +2480,7 @@
       <c r="K46" s="7"/>
       <c r="L46" s="7"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -2202,7 +2494,7 @@
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
         <v>3</v>
@@ -2450,7 +2742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
